--- a/simulation_data/one_step_algorithm/1s_error_level_7_percent_water_40.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_7_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.08005384864471</v>
+        <v>89.98665927944495</v>
       </c>
       <c r="D2" t="n">
-        <v>1.533916890441312</v>
+        <v>1.606023760413356</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.07194463753785</v>
+        <v>88.91001871225011</v>
       </c>
       <c r="D3" t="n">
-        <v>1.534369562062613</v>
+        <v>1.731598420137082</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.81084707775086</v>
+        <v>87.69240701760104</v>
       </c>
       <c r="D4" t="n">
-        <v>1.591710567551913</v>
+        <v>1.571176367686339</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.76850064812749</v>
+        <v>87.14509465288303</v>
       </c>
       <c r="D5" t="n">
-        <v>1.819957278365553</v>
+        <v>1.58556501866524</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.6506499529569</v>
+        <v>86.11155977493836</v>
       </c>
       <c r="D6" t="n">
-        <v>1.854833832108819</v>
+        <v>1.758204824775408</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.62368816645916</v>
+        <v>84.94474114457006</v>
       </c>
       <c r="D7" t="n">
-        <v>1.735025441295834</v>
+        <v>1.991729062788222</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.89689656928761</v>
+        <v>83.86907881728828</v>
       </c>
       <c r="D8" t="n">
-        <v>1.660326378551808</v>
+        <v>1.719269981267588</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.95988445773496</v>
+        <v>82.86993690355797</v>
       </c>
       <c r="D9" t="n">
-        <v>1.72397271292985</v>
+        <v>1.784562248985925</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.06067243192886</v>
+        <v>81.75070773744146</v>
       </c>
       <c r="D10" t="n">
-        <v>1.85487085660913</v>
+        <v>1.848544633486646</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.95753716592837</v>
+        <v>80.9464970634822</v>
       </c>
       <c r="D11" t="n">
-        <v>1.772910363606252</v>
+        <v>1.931482945805514</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.12640801297914</v>
+        <v>80.04722602183955</v>
       </c>
       <c r="D12" t="n">
-        <v>1.588804346981424</v>
+        <v>1.876657408593964</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.91217770589614</v>
+        <v>78.91290772278202</v>
       </c>
       <c r="D13" t="n">
-        <v>1.799854981304685</v>
+        <v>1.923144467661072</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.85261606178537</v>
+        <v>77.84743282473553</v>
       </c>
       <c r="D14" t="n">
-        <v>1.966220276878959</v>
+        <v>1.994774607236427</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.14818611913871</v>
+        <v>76.89242067016087</v>
       </c>
       <c r="D15" t="n">
-        <v>1.765951330002916</v>
+        <v>1.909978340127701</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.92338341507198</v>
+        <v>75.89642454399294</v>
       </c>
       <c r="D16" t="n">
-        <v>1.903015541619651</v>
+        <v>1.913025226593126</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.05479348911943</v>
+        <v>74.79809525700054</v>
       </c>
       <c r="D17" t="n">
-        <v>2.022028094745159</v>
+        <v>1.683489402842172</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.5736515629776</v>
+        <v>73.89664560665146</v>
       </c>
       <c r="D18" t="n">
-        <v>1.784548189860691</v>
+        <v>1.937919299264834</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.8096337807884</v>
+        <v>72.89675497588647</v>
       </c>
       <c r="D19" t="n">
-        <v>1.884235898904783</v>
+        <v>1.812501845396922</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.61836218396155</v>
+        <v>71.83324513838751</v>
       </c>
       <c r="D20" t="n">
-        <v>1.651419796639944</v>
+        <v>1.912606953570307</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.0071733519506</v>
+        <v>71.24433785555254</v>
       </c>
       <c r="D21" t="n">
-        <v>1.712159588017533</v>
+        <v>2.098597924566047</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.94502035273609</v>
+        <v>69.66285264011454</v>
       </c>
       <c r="D22" t="n">
-        <v>1.979005035619433</v>
+        <v>2.072543320473174</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.94859173476016</v>
+        <v>69.06562367184051</v>
       </c>
       <c r="D23" t="n">
-        <v>2.488152213557975</v>
+        <v>1.794391369176484</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.13417341447533</v>
+        <v>67.89142608445701</v>
       </c>
       <c r="D24" t="n">
-        <v>1.848248653023432</v>
+        <v>2.080457119093119</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.18579661576329</v>
+        <v>66.82899998299675</v>
       </c>
       <c r="D25" t="n">
-        <v>2.181049383970366</v>
+        <v>1.887322425420241</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.03869848080309</v>
+        <v>65.8865963508069</v>
       </c>
       <c r="D26" t="n">
-        <v>1.76622244051221</v>
+        <v>1.854566604690838</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.91105276578362</v>
+        <v>64.85461712946584</v>
       </c>
       <c r="D27" t="n">
-        <v>2.047774984250271</v>
+        <v>2.03902169777411</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.79041612173277</v>
+        <v>64.05939583663249</v>
       </c>
       <c r="D28" t="n">
-        <v>1.974786739976681</v>
+        <v>1.995134789389182</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.92129590624834</v>
+        <v>62.48146710814148</v>
       </c>
       <c r="D29" t="n">
-        <v>1.828881368581472</v>
+        <v>1.826454394702161</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.12810811503583</v>
+        <v>62.42691602020457</v>
       </c>
       <c r="D30" t="n">
-        <v>2.264129929629179</v>
+        <v>1.90111954379044</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.01503934332651</v>
+        <v>61.22392425579654</v>
       </c>
       <c r="D31" t="n">
-        <v>2.401302121364679</v>
+        <v>2.126734340664517</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.9248216534349</v>
+        <v>59.76624626546234</v>
       </c>
       <c r="D32" t="n">
-        <v>2.071947010823001</v>
+        <v>1.952597545973115</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.17675837791591</v>
+        <v>58.95379721111507</v>
       </c>
       <c r="D33" t="n">
-        <v>2.213604763329633</v>
+        <v>2.253713648695799</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.07897584452495</v>
+        <v>58.20018764200586</v>
       </c>
       <c r="D34" t="n">
-        <v>2.318027823526522</v>
+        <v>2.295049003358505</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.75724085310218</v>
+        <v>56.72999949589177</v>
       </c>
       <c r="D35" t="n">
-        <v>2.357608574383391</v>
+        <v>2.472144268428934</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.92005643449702</v>
+        <v>56.22749345359924</v>
       </c>
       <c r="D36" t="n">
-        <v>2.309378722723023</v>
+        <v>2.213353828361783</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.34139317070371</v>
+        <v>54.69581442623085</v>
       </c>
       <c r="D37" t="n">
-        <v>2.357524899418919</v>
+        <v>2.289892155610929</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.86433590887929</v>
+        <v>53.78307766207379</v>
       </c>
       <c r="D38" t="n">
-        <v>2.294893470364133</v>
+        <v>2.307249553578487</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.59238794796349</v>
+        <v>52.63247694764705</v>
       </c>
       <c r="D39" t="n">
-        <v>2.487465084195533</v>
+        <v>2.172223282021334</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.89876024302955</v>
+        <v>51.82656219416216</v>
       </c>
       <c r="D40" t="n">
-        <v>2.604864952395402</v>
+        <v>1.943989177969164</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.97975673574774</v>
+        <v>51.11119078691652</v>
       </c>
       <c r="D41" t="n">
-        <v>2.335439465570587</v>
+        <v>2.111846614812764</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.00219137038244</v>
+        <v>49.92587232728415</v>
       </c>
       <c r="D42" t="n">
-        <v>2.396533960931071</v>
+        <v>2.246629455599943</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.26430390724163</v>
+        <v>49.01436238415115</v>
       </c>
       <c r="D43" t="n">
-        <v>2.692412107977554</v>
+        <v>2.214587925518301</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.78963505477518</v>
+        <v>48.36680565796225</v>
       </c>
       <c r="D44" t="n">
-        <v>2.313281236298732</v>
+        <v>2.628565269727781</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.65199769241593</v>
+        <v>47.05099238654815</v>
       </c>
       <c r="D45" t="n">
-        <v>2.618457937348173</v>
+        <v>2.204584610578551</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.31367368382047</v>
+        <v>45.73570406968675</v>
       </c>
       <c r="D46" t="n">
-        <v>2.434428238901849</v>
+        <v>2.347767440243944</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.16473991571505</v>
+        <v>45.00236033567371</v>
       </c>
       <c r="D47" t="n">
-        <v>2.450100775362865</v>
+        <v>2.723679164027251</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.52124922506407</v>
+        <v>44.10869802373858</v>
       </c>
       <c r="D48" t="n">
-        <v>2.343753917451765</v>
+        <v>2.38861354182558</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.94613512319987</v>
+        <v>43.20530916160987</v>
       </c>
       <c r="D49" t="n">
-        <v>2.669442561498994</v>
+        <v>2.284765371207321</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.24977829525193</v>
+        <v>41.50533073814866</v>
       </c>
       <c r="D50" t="n">
-        <v>2.392264475574463</v>
+        <v>2.858514886251963</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.11790929806378</v>
+        <v>40.84618652340627</v>
       </c>
       <c r="D51" t="n">
-        <v>2.580063812170508</v>
+        <v>2.618480840703183</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.90340243425189</v>
+        <v>40.06858735532889</v>
       </c>
       <c r="D52" t="n">
-        <v>2.995477628353132</v>
+        <v>2.576238801336191</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.88920577343931</v>
+        <v>38.85197175638707</v>
       </c>
       <c r="D53" t="n">
-        <v>2.667327715650341</v>
+        <v>2.530306962643845</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.46592579409104</v>
+        <v>38.20738384742752</v>
       </c>
       <c r="D54" t="n">
-        <v>3.143239548836914</v>
+        <v>2.498311545628633</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.54513336144327</v>
+        <v>37.28401465358296</v>
       </c>
       <c r="D55" t="n">
-        <v>2.496105476856568</v>
+        <v>2.48846572855266</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.31267088111245</v>
+        <v>35.626563568809</v>
       </c>
       <c r="D56" t="n">
-        <v>2.301349439412983</v>
+        <v>2.373885678149078</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.27527079446957</v>
+        <v>34.43824497912043</v>
       </c>
       <c r="D57" t="n">
-        <v>2.746584720841604</v>
+        <v>2.863719078354717</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.49814243410405</v>
+        <v>34.26656044080075</v>
       </c>
       <c r="D58" t="n">
-        <v>2.777832363784172</v>
+        <v>2.723506121506754</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.31590249212031</v>
+        <v>33.04059603443049</v>
       </c>
       <c r="D59" t="n">
-        <v>2.585887859599092</v>
+        <v>2.83141250796633</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.98799901503731</v>
+        <v>31.66383842271696</v>
       </c>
       <c r="D60" t="n">
-        <v>2.462977682823311</v>
+        <v>2.65570302475077</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.06369260610347</v>
+        <v>31.20148457036273</v>
       </c>
       <c r="D61" t="n">
-        <v>2.560636211497777</v>
+        <v>2.711230264036154</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.87803033574492</v>
+        <v>29.74621669952098</v>
       </c>
       <c r="D62" t="n">
-        <v>2.654053550480129</v>
+        <v>2.610668485095388</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.0505777832517</v>
+        <v>28.64180327578175</v>
       </c>
       <c r="D63" t="n">
-        <v>2.676477447228806</v>
+        <v>3.012602559800559</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.68909432410732</v>
+        <v>28.367138399482</v>
       </c>
       <c r="D64" t="n">
-        <v>2.789584389572923</v>
+        <v>2.606032788056265</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.84345403055266</v>
+        <v>26.66576979885394</v>
       </c>
       <c r="D65" t="n">
-        <v>2.742100910891012</v>
+        <v>2.926215161372824</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.83671909775269</v>
+        <v>25.36415513404389</v>
       </c>
       <c r="D66" t="n">
-        <v>2.550145625626962</v>
+        <v>2.826925330161913</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.85708958417266</v>
+        <v>25.21465431557026</v>
       </c>
       <c r="D67" t="n">
-        <v>2.759171882821922</v>
+        <v>2.762258139054024</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.51848878471661</v>
+        <v>23.79962700078049</v>
       </c>
       <c r="D68" t="n">
-        <v>2.584848755263155</v>
+        <v>3.05971010486798</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.49601809886707</v>
+        <v>22.74454605138338</v>
       </c>
       <c r="D69" t="n">
-        <v>3.127033192256882</v>
+        <v>2.788890256863511</v>
       </c>
     </row>
   </sheetData>
